--- a/biology/Botanique/Nerprun_des_Alpes/Nerprun_des_Alpes.xlsx
+++ b/biology/Botanique/Nerprun_des_Alpes/Nerprun_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhamnus alpina
 Le Nerprun des Alpes (Rhamnus alpina) est une espèce de plantes à fleurs de la famille des Rhamnaceae. C'est un arbrisseau qui peut atteindre 3 à 4 m de haut. Ses feuilles sont grandes, alternes, aux nervures saillantes en dessous. Il fleurit de mai à août.
@@ -512,7 +524,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nerprun des Alpes pousse essentiellement sur calcaire dans les bois clairs, rochers et éboulis jusqu'à l'étage subalpin entre 400 à 2200 m d'altitude.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans l'est, le sud-est et le sud de la France et en Suisse.
 </t>
@@ -574,9 +590,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français[1]. En France elle est toutefois considérée  en danger (EN) en Auvergne et en Alsace.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français. En France elle est toutefois considérée  en danger (EN) en Auvergne et en Alsace.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la Bourdaine (Frangula alnus), c'est une plante médicinale utilisée contre la constipation.
 </t>
